--- a/biology/Biologie cellulaire et moléculaire/Antigènes_public_et_privés/Antigènes_public_et_privés.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Antigènes_public_et_privés/Antigènes_public_et_privés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antig%C3%A8nes_public_et_priv%C3%A9s</t>
+          <t>Antigènes_public_et_privés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les antigènes public et privés sont des structures moléculaires  implantées à la surface de la membrane des globules rouges et déterminées par un gène monomorphe, sans allèle connu, dont la fréquence dans la population est soit extrêmement haute (antigène public), soit extrêmement basse (antigène privé).
